--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_1_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_1_sawtooth_0.5_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -577,65 +577,65 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1881148726402435</v>
+        <v>0.02098215031174244</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3752915164892639</v>
+        <v>0.04820568632194122</v>
       </c>
       <c r="I2" t="n">
-        <v>4.107825191113079e-15</v>
+        <v>6.914172221428316e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>3.656583044917228</v>
+        <v>5.596149880631586</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-1.3193022583952558, 8.632468348229711]</t>
+          <t>[0.9280184734517469, 10.264281287811425]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.1485096031274717</v>
+        <v>0.01914508340687338</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1485096031274717</v>
+        <v>0.01914508340687338</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.151000375430849</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-5.2831588168477, 0.9811580659860022]</t>
+          <t>[-2.956053147521928, -0.5408948312486928]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.176743071444365</v>
+        <v>0.004845457638673834</v>
       </c>
       <c r="R2" t="n">
-        <v>0.176743071444365</v>
+        <v>0.009690915277347667</v>
       </c>
       <c r="S2" t="n">
-        <v>12.73755047747777</v>
+        <v>13.76000995111468</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.011425570333127, 15.463675384622416]</t>
+          <t>[11.001197949513625, 16.518821952715726]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.531531531531531</v>
+        <v>6.122122122122121</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.435435435435437</v>
+        <v>1.893893893893892</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.4984984984985</v>
+        <v>10.35035035035035</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005960781743158394</v>
+        <v>0.002762171380445988</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006002339961422912</v>
+        <v>0.01961181587588451</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.493028898777903</v>
+        <v>4.638519314653505</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.7852035157322224, 9.200854281823585]</t>
+          <t>[1.0408960950284882, 8.236142534278521]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.003827103649781227</v>
+        <v>0.01168750200725266</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007654207299562454</v>
+        <v>0.01914508340687338</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.018894914677771</v>
+        <v>0.786184347745194</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.698158191129619, -0.33963163822592346]</t>
+          <t>[0.1320789704211931, 1.4402897250691948]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.003414672415299691</v>
+        <v>0.01866180695781594</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006829344830599382</v>
+        <v>0.01866180695781594</v>
       </c>
       <c r="S3" t="n">
-        <v>12.97510571549956</v>
+        <v>13.81108686705148</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.995978987257013, 14.954232443742098]</t>
+          <t>[11.968448386485921, 15.653725347617044]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.773513513513549</v>
+        <v>21.46068068068102</v>
       </c>
       <c r="X3" t="n">
-        <v>1.25783783783785</v>
+        <v>18.90700700700731</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.28918918918925</v>
+        <v>24.01435435435474</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_1_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_1_sawtooth_0.5_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -577,49 +577,49 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02098215031174244</v>
+        <v>0.08938527505744587</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04820568632194122</v>
+        <v>0.1918236852737233</v>
       </c>
       <c r="I2" t="n">
-        <v>6.914172221428316e-07</v>
+        <v>9.370469900016332e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.596149880631586</v>
+        <v>4.289795095677585</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.9280184734517469, 10.264281287811425]</t>
+          <t>[-0.758492991649435, 9.338083183004604]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01914508340687338</v>
+        <v>0.09519066412327537</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01914508340687338</v>
+        <v>0.09519066412327537</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.74847398938531</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.956053147521928, -0.5408948312486928]</t>
+          <t>[-4.559869216922123, 0.2327105669325773]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.004845457638673834</v>
+        <v>0.07642012698893552</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009690915277347667</v>
+        <v>0.152840253977871</v>
       </c>
       <c r="S2" t="n">
-        <v>13.76000995111468</v>
+        <v>14.2366973182484</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.001197949513625, 16.518821952715726]</t>
+          <t>[11.58157807420503, 16.891816562291766]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.122122122122121</v>
+        <v>7.575575575575577</v>
       </c>
       <c r="X2" t="n">
-        <v>1.893893893893892</v>
+        <v>-0.8148148148148149</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.35035035035035</v>
+        <v>15.96596596596597</v>
       </c>
     </row>
     <row r="3">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002762171380445988</v>
+        <v>0.002346588825904439</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01961181587588451</v>
+        <v>0.02674972875658173</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.638519314653505</v>
+        <v>4.805115905902142</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.0408960950284882, 8.236142534278521]</t>
+          <t>[1.3146895303038892, 8.295542281500396]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.01168750200725266</v>
+        <v>0.007142336292925267</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01914508340687338</v>
+        <v>0.01428467258585053</v>
       </c>
       <c r="O3" t="n">
-        <v>0.786184347745194</v>
+        <v>-0.2641579408423853</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1320789704211931, 1.4402897250691948]</t>
+          <t>[-1.0817896624973864, 0.5534737808126158]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.01866180695781594</v>
+        <v>0.5253391405816124</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01866180695781594</v>
+        <v>0.5253391405816124</v>
       </c>
       <c r="S3" t="n">
-        <v>13.81108686705148</v>
+        <v>13.67739649767279</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.968448386485921, 15.653725347617044]</t>
+          <t>[11.766744971780774, 15.588048023564802]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.46068068068102</v>
+        <v>0.9938738738738877</v>
       </c>
       <c r="X3" t="n">
-        <v>18.90700700700731</v>
+        <v>-2.082402402402421</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.01435435435474</v>
+        <v>4.070150150150196</v>
       </c>
     </row>
   </sheetData>
